--- a/ARQUIVO ANNA.xlsx
+++ b/ARQUIVO ANNA.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
     <sheet name="Fervereiro" sheetId="3" r:id="rId2"/>
     <sheet name="Março" sheetId="4" r:id="rId3"/>
+    <sheet name="RELATORIO" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -28,6 +29,15 @@
   </si>
   <si>
     <t>DIA</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>R$</t>
+  </si>
+  <si>
+    <t>Corridas</t>
   </si>
 </sst>
 </file>
@@ -105,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -158,6 +168,12 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,7 +481,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="A2:C32"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,7 +881,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="A2:C29"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1222,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1594,11 +1610,59 @@
         <v>1</v>
       </c>
       <c r="C33" s="7">
-        <f>SUM(C2:C29)</f>
+        <f>SUM(C2:C32)</f>
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="21">
+        <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19">
+        <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ARQUIVO ANNA.xlsx
+++ b/ARQUIVO ANNA.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212DA51B-86EA-46FF-B836-F2A6C8A36501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -12,7 +13,7 @@
     <sheet name="Março" sheetId="4" r:id="rId3"/>
     <sheet name="RELATORIO" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -168,12 +169,12 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -194,7 +195,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -232,7 +233,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -267,6 +268,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -302,9 +320,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -477,21 +512,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -502,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>44927</v>
       </c>
@@ -513,7 +548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>44928</v>
       </c>
@@ -524,7 +559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>44929</v>
       </c>
@@ -535,7 +570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>44930</v>
       </c>
@@ -546,7 +581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>44931</v>
       </c>
@@ -557,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>44932</v>
       </c>
@@ -568,7 +603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>44933</v>
       </c>
@@ -579,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>44934</v>
       </c>
@@ -590,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>44935</v>
       </c>
@@ -601,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>44936</v>
       </c>
@@ -612,7 +647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>44937</v>
       </c>
@@ -623,7 +658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>44938</v>
       </c>
@@ -634,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>44939</v>
       </c>
@@ -645,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>44940</v>
       </c>
@@ -656,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>44941</v>
       </c>
@@ -667,7 +702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>44942</v>
       </c>
@@ -678,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>44943</v>
       </c>
@@ -689,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>44944</v>
       </c>
@@ -700,7 +735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>44945</v>
       </c>
@@ -711,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>44946</v>
       </c>
@@ -722,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>44947</v>
       </c>
@@ -733,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>44948</v>
       </c>
@@ -744,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>44949</v>
       </c>
@@ -755,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>44950</v>
       </c>
@@ -766,7 +801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>44951</v>
       </c>
@@ -777,7 +812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>44952</v>
       </c>
@@ -788,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>44953</v>
       </c>
@@ -799,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>44954</v>
       </c>
@@ -810,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>44955</v>
       </c>
@@ -821,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>44956</v>
       </c>
@@ -832,7 +867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>44957</v>
       </c>
@@ -843,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -856,19 +891,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
     </row>
   </sheetData>
@@ -877,21 +912,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -902,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>44958</v>
       </c>
@@ -913,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>44959</v>
       </c>
@@ -924,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>44960</v>
       </c>
@@ -935,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>44961</v>
       </c>
@@ -946,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>44962</v>
       </c>
@@ -957,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>44963</v>
       </c>
@@ -968,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>44964</v>
       </c>
@@ -979,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>44965</v>
       </c>
@@ -990,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>44966</v>
       </c>
@@ -1001,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>44967</v>
       </c>
@@ -1012,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>44968</v>
       </c>
@@ -1023,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>44969</v>
       </c>
@@ -1034,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>44970</v>
       </c>
@@ -1045,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>44971</v>
       </c>
@@ -1056,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>44972</v>
       </c>
@@ -1067,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>44973</v>
       </c>
@@ -1078,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>44974</v>
       </c>
@@ -1089,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>44975</v>
       </c>
@@ -1100,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>44976</v>
       </c>
@@ -1111,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>44977</v>
       </c>
@@ -1122,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>44978</v>
       </c>
@@ -1133,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>44979</v>
       </c>
@@ -1144,7 +1179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>44980</v>
       </c>
@@ -1155,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>44981</v>
       </c>
@@ -1166,7 +1201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>44982</v>
       </c>
@@ -1177,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>44983</v>
       </c>
@@ -1188,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>44984</v>
       </c>
@@ -1199,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>44985</v>
       </c>
@@ -1210,7 +1245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -1223,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1235,21 +1270,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1260,7 +1295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>44986</v>
       </c>
@@ -1271,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>44987</v>
       </c>
@@ -1282,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>44988</v>
       </c>
@@ -1293,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>44989</v>
       </c>
@@ -1304,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>44990</v>
       </c>
@@ -1315,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>44991</v>
       </c>
@@ -1326,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>44992</v>
       </c>
@@ -1337,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>44993</v>
       </c>
@@ -1348,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>44994</v>
       </c>
@@ -1359,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>44995</v>
       </c>
@@ -1370,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>44996</v>
       </c>
@@ -1381,7 +1416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>44997</v>
       </c>
@@ -1392,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>44998</v>
       </c>
@@ -1403,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>44999</v>
       </c>
@@ -1414,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>45000</v>
       </c>
@@ -1425,18 +1460,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>45001</v>
       </c>
       <c r="B17" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>45002</v>
       </c>
@@ -1447,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>45003</v>
       </c>
@@ -1458,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>45004</v>
       </c>
@@ -1469,7 +1504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>45005</v>
       </c>
@@ -1480,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>45006</v>
       </c>
@@ -1491,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>45007</v>
       </c>
@@ -1502,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>45008</v>
       </c>
@@ -1513,7 +1548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>45009</v>
       </c>
@@ -1524,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>45010</v>
       </c>
@@ -1535,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>45011</v>
       </c>
@@ -1546,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>45012</v>
       </c>
@@ -1557,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>45013</v>
       </c>
@@ -1568,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>45014</v>
       </c>
@@ -1579,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>45015</v>
       </c>
@@ -1590,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>45016</v>
       </c>
@@ -1601,17 +1636,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B29)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1620,40 +1655,40 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="20"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="21">
+      <c r="B2" s="21"/>
+      <c r="C2" s="20">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19">
+      <c r="B3" s="21"/>
+      <c r="C3" s="18">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO ANNA.xlsx
+++ b/ARQUIVO ANNA.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212DA51B-86EA-46FF-B836-F2A6C8A36501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -13,12 +12,12 @@
     <sheet name="Março" sheetId="4" r:id="rId3"/>
     <sheet name="RELATORIO" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -40,11 +39,17 @@
   <si>
     <t>Corridas</t>
   </si>
+  <si>
+    <t>Entregador</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -116,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -173,6 +178,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -195,7 +207,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -233,7 +245,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -268,23 +280,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -320,26 +315,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -512,21 +490,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -537,7 +515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>44927</v>
       </c>
@@ -548,7 +526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>44928</v>
       </c>
@@ -559,7 +537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>44929</v>
       </c>
@@ -570,7 +548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>44930</v>
       </c>
@@ -581,7 +559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>44931</v>
       </c>
@@ -592,7 +570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>44932</v>
       </c>
@@ -603,7 +581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>44933</v>
       </c>
@@ -614,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>44934</v>
       </c>
@@ -625,7 +603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>44935</v>
       </c>
@@ -636,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>44936</v>
       </c>
@@ -647,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>44937</v>
       </c>
@@ -658,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>44938</v>
       </c>
@@ -669,7 +647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>44939</v>
       </c>
@@ -680,7 +658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>44940</v>
       </c>
@@ -691,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>44941</v>
       </c>
@@ -702,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>44942</v>
       </c>
@@ -713,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>44943</v>
       </c>
@@ -724,7 +702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>44944</v>
       </c>
@@ -735,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>44945</v>
       </c>
@@ -746,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>44946</v>
       </c>
@@ -757,7 +735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>44947</v>
       </c>
@@ -768,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>44948</v>
       </c>
@@ -779,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>44949</v>
       </c>
@@ -790,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>44950</v>
       </c>
@@ -801,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>44951</v>
       </c>
@@ -812,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>44952</v>
       </c>
@@ -823,7 +801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>44953</v>
       </c>
@@ -834,7 +812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>44954</v>
       </c>
@@ -845,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>44955</v>
       </c>
@@ -856,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>44956</v>
       </c>
@@ -867,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>44957</v>
       </c>
@@ -878,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -891,19 +869,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
     </row>
   </sheetData>
@@ -912,21 +890,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -937,7 +915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>44958</v>
       </c>
@@ -948,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>44959</v>
       </c>
@@ -959,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>44960</v>
       </c>
@@ -970,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>44961</v>
       </c>
@@ -981,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>44962</v>
       </c>
@@ -992,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>44963</v>
       </c>
@@ -1003,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>44964</v>
       </c>
@@ -1014,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>44965</v>
       </c>
@@ -1025,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>44966</v>
       </c>
@@ -1036,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>44967</v>
       </c>
@@ -1047,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>44968</v>
       </c>
@@ -1058,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>44969</v>
       </c>
@@ -1069,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>44970</v>
       </c>
@@ -1080,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>44971</v>
       </c>
@@ -1091,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>44972</v>
       </c>
@@ -1102,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>44973</v>
       </c>
@@ -1113,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>44974</v>
       </c>
@@ -1124,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>44975</v>
       </c>
@@ -1135,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>44976</v>
       </c>
@@ -1146,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>44977</v>
       </c>
@@ -1157,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>44978</v>
       </c>
@@ -1168,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>44979</v>
       </c>
@@ -1179,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>44980</v>
       </c>
@@ -1190,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>44981</v>
       </c>
@@ -1201,7 +1179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>44982</v>
       </c>
@@ -1212,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>44983</v>
       </c>
@@ -1223,7 +1201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>44984</v>
       </c>
@@ -1234,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>44985</v>
       </c>
@@ -1245,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -1258,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1270,21 +1248,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1294,173 +1272,267 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>44986</v>
       </c>
-      <c r="B2" s="13">
-        <v>0</v>
-      </c>
-      <c r="C2" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>44987</v>
       </c>
-      <c r="B3" s="13">
-        <v>0</v>
-      </c>
-      <c r="C3" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>44988</v>
       </c>
-      <c r="B4" s="13">
-        <v>0</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>44989</v>
       </c>
-      <c r="B5" s="13">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>44990</v>
       </c>
-      <c r="B6" s="13">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>44991</v>
       </c>
-      <c r="B7" s="13">
-        <v>0</v>
-      </c>
-      <c r="C7" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>44992</v>
       </c>
-      <c r="B8" s="13">
-        <v>0</v>
-      </c>
-      <c r="C8" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>44993</v>
       </c>
-      <c r="B9" s="13">
-        <v>0</v>
-      </c>
-      <c r="C9" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>44994</v>
       </c>
-      <c r="B10" s="13">
-        <v>0</v>
-      </c>
-      <c r="C10" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>44995</v>
       </c>
-      <c r="B11" s="13">
-        <v>0</v>
-      </c>
-      <c r="C11" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>44996</v>
       </c>
-      <c r="B12" s="13">
-        <v>0</v>
-      </c>
-      <c r="C12" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>44997</v>
       </c>
-      <c r="B13" s="13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>44998</v>
       </c>
-      <c r="B14" s="13">
-        <v>0</v>
-      </c>
-      <c r="C14" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>44999</v>
       </c>
-      <c r="B15" s="13">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>45000</v>
       </c>
-      <c r="B16" s="13">
-        <v>0</v>
-      </c>
-      <c r="C16" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>45001</v>
       </c>
@@ -1470,41 +1542,65 @@
       <c r="C17" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="D17" s="24">
+        <v>54</v>
+      </c>
+      <c r="E17" s="24">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
         <v>45002</v>
       </c>
-      <c r="B18" s="16">
-        <v>0</v>
-      </c>
-      <c r="C18" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="B18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
         <v>45003</v>
       </c>
-      <c r="B19" s="16">
-        <v>0</v>
-      </c>
-      <c r="C19" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="B19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
         <v>45004</v>
       </c>
-      <c r="B20" s="16">
-        <v>0</v>
-      </c>
-      <c r="C20" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>45005</v>
       </c>
@@ -1514,8 +1610,10 @@
       <c r="C21" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>45006</v>
       </c>
@@ -1525,8 +1623,10 @@
       <c r="C22" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>45007</v>
       </c>
@@ -1536,8 +1636,10 @@
       <c r="C23" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>45008</v>
       </c>
@@ -1547,8 +1649,10 @@
       <c r="C24" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>45009</v>
       </c>
@@ -1558,8 +1662,10 @@
       <c r="C25" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>45010</v>
       </c>
@@ -1569,8 +1675,10 @@
       <c r="C26" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>45011</v>
       </c>
@@ -1580,8 +1688,10 @@
       <c r="C27" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
         <v>45012</v>
       </c>
@@ -1591,8 +1701,10 @@
       <c r="C28" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>45013</v>
       </c>
@@ -1602,8 +1714,10 @@
       <c r="C29" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <v>45014</v>
       </c>
@@ -1613,8 +1727,10 @@
       <c r="C30" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>45015</v>
       </c>
@@ -1624,8 +1740,10 @@
       <c r="C31" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>45016</v>
       </c>
@@ -1635,8 +1753,10 @@
       <c r="C32" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -1648,30 +1768,35 @@
         <f>SUM(C2:C32)</f>
         <v>10</v>
       </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
@@ -1681,7 +1806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>5</v>
       </c>

--- a/ARQUIVO ANNA.xlsx
+++ b/ARQUIVO ANNA.xlsx
@@ -121,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,14 +177,19 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1252,14 +1257,15 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1269,13 +1275,13 @@
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
@@ -1542,10 +1548,10 @@
       <c r="C17" s="11">
         <v>10</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="22">
         <v>54</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="22">
         <v>54</v>
       </c>
     </row>
@@ -1601,17 +1607,21 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
+      <c r="A21" s="9">
         <v>45005</v>
       </c>
-      <c r="B21" s="16">
-        <v>0</v>
-      </c>
-      <c r="C21" s="17">
-        <v>0</v>
-      </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
+      <c r="B21" s="10">
+        <v>1</v>
+      </c>
+      <c r="C21" s="11">
+        <v>5</v>
+      </c>
+      <c r="D21" s="22">
+        <v>0</v>
+      </c>
+      <c r="E21" s="22">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
@@ -1623,8 +1633,8 @@
       <c r="C22" s="17">
         <v>0</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
@@ -1636,8 +1646,8 @@
       <c r="C23" s="17">
         <v>0</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
@@ -1649,8 +1659,8 @@
       <c r="C24" s="17">
         <v>0</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
@@ -1662,8 +1672,8 @@
       <c r="C25" s="17">
         <v>0</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
@@ -1675,8 +1685,8 @@
       <c r="C26" s="17">
         <v>0</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
@@ -1688,8 +1698,8 @@
       <c r="C27" s="17">
         <v>0</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
@@ -1701,8 +1711,8 @@
       <c r="C28" s="17">
         <v>0</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
@@ -1714,8 +1724,8 @@
       <c r="C29" s="17">
         <v>0</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
@@ -1727,8 +1737,8 @@
       <c r="C30" s="17">
         <v>0</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
@@ -1740,8 +1750,8 @@
       <c r="C31" s="17">
         <v>0</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
@@ -1753,8 +1763,8 @@
       <c r="C32" s="17">
         <v>0</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
@@ -1762,14 +1772,14 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B29)</f>
-        <v>2</v>
-      </c>
-      <c r="C33" s="7">
+        <v>3</v>
+      </c>
+      <c r="C33" s="21">
         <f>SUM(C2:C32)</f>
-        <v>10</v>
-      </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
+        <v>15</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1790,30 +1800,30 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="20">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="18">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO ANNA.xlsx
+++ b/ARQUIVO ANNA.xlsx
@@ -121,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -186,10 +186,16 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1256,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1278,10 +1284,10 @@
       <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
@@ -1624,30 +1630,34 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="15">
+      <c r="A22" s="12">
         <v>45006</v>
       </c>
-      <c r="B22" s="16">
-        <v>0</v>
-      </c>
-      <c r="C22" s="17">
-        <v>0</v>
-      </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
+      <c r="B22" s="13">
+        <v>0</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
+      <c r="A23" s="9">
         <v>45007</v>
       </c>
-      <c r="B23" s="16">
-        <v>0</v>
-      </c>
-      <c r="C23" s="17">
-        <v>0</v>
-      </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="B23" s="10">
+        <v>2</v>
+      </c>
+      <c r="C23" s="11">
+        <v>10</v>
+      </c>
+      <c r="D23" s="22">
+        <v>54</v>
+      </c>
+      <c r="E23" s="22">
+        <v>54</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
@@ -1659,8 +1669,8 @@
       <c r="C24" s="17">
         <v>0</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
@@ -1672,8 +1682,8 @@
       <c r="C25" s="17">
         <v>0</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
@@ -1685,8 +1695,8 @@
       <c r="C26" s="17">
         <v>0</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
@@ -1698,8 +1708,8 @@
       <c r="C27" s="17">
         <v>0</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
@@ -1711,8 +1721,8 @@
       <c r="C28" s="17">
         <v>0</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
@@ -1724,8 +1734,8 @@
       <c r="C29" s="17">
         <v>0</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
@@ -1737,8 +1747,8 @@
       <c r="C30" s="17">
         <v>0</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
@@ -1750,8 +1760,8 @@
       <c r="C31" s="17">
         <v>0</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
@@ -1763,8 +1773,8 @@
       <c r="C32" s="17">
         <v>0</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
@@ -1772,14 +1782,14 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B29)</f>
-        <v>3</v>
-      </c>
-      <c r="C33" s="21">
+        <v>5</v>
+      </c>
+      <c r="C33" s="23">
         <f>SUM(C2:C32)</f>
-        <v>15</v>
-      </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
+        <v>25</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1800,30 +1810,30 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="20">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="18">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO ANNA.xlsx
+++ b/ARQUIVO ANNA.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21731D39-B76B-4858-95C5-E168045332CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -12,7 +13,7 @@
     <sheet name="Março" sheetId="4" r:id="rId3"/>
     <sheet name="RELATORIO" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -121,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,25 +178,22 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -218,7 +216,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -256,7 +254,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -291,6 +289,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -326,9 +341,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -501,21 +533,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -526,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>44927</v>
       </c>
@@ -537,7 +569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>44928</v>
       </c>
@@ -548,7 +580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>44929</v>
       </c>
@@ -559,7 +591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>44930</v>
       </c>
@@ -570,7 +602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>44931</v>
       </c>
@@ -581,7 +613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>44932</v>
       </c>
@@ -592,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>44933</v>
       </c>
@@ -603,7 +635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>44934</v>
       </c>
@@ -614,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>44935</v>
       </c>
@@ -625,7 +657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>44936</v>
       </c>
@@ -636,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>44937</v>
       </c>
@@ -647,7 +679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>44938</v>
       </c>
@@ -658,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>44939</v>
       </c>
@@ -669,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>44940</v>
       </c>
@@ -680,7 +712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>44941</v>
       </c>
@@ -691,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>44942</v>
       </c>
@@ -702,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>44943</v>
       </c>
@@ -713,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>44944</v>
       </c>
@@ -724,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>44945</v>
       </c>
@@ -735,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>44946</v>
       </c>
@@ -746,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>44947</v>
       </c>
@@ -757,7 +789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>44948</v>
       </c>
@@ -768,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>44949</v>
       </c>
@@ -779,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>44950</v>
       </c>
@@ -790,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>44951</v>
       </c>
@@ -801,7 +833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>44952</v>
       </c>
@@ -812,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>44953</v>
       </c>
@@ -823,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>44954</v>
       </c>
@@ -834,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>44955</v>
       </c>
@@ -845,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>44956</v>
       </c>
@@ -856,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>44957</v>
       </c>
@@ -867,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -880,19 +912,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
     </row>
   </sheetData>
@@ -901,21 +933,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -926,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>44958</v>
       </c>
@@ -937,7 +969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>44959</v>
       </c>
@@ -948,7 +980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>44960</v>
       </c>
@@ -959,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>44961</v>
       </c>
@@ -970,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>44962</v>
       </c>
@@ -981,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>44963</v>
       </c>
@@ -992,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>44964</v>
       </c>
@@ -1003,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>44965</v>
       </c>
@@ -1014,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>44966</v>
       </c>
@@ -1025,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>44967</v>
       </c>
@@ -1036,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>44968</v>
       </c>
@@ -1047,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>44969</v>
       </c>
@@ -1058,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>44970</v>
       </c>
@@ -1069,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>44971</v>
       </c>
@@ -1080,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>44972</v>
       </c>
@@ -1091,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>44973</v>
       </c>
@@ -1102,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>44974</v>
       </c>
@@ -1113,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>44975</v>
       </c>
@@ -1124,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>44976</v>
       </c>
@@ -1135,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>44977</v>
       </c>
@@ -1146,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>44978</v>
       </c>
@@ -1157,7 +1189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>44979</v>
       </c>
@@ -1168,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>44980</v>
       </c>
@@ -1179,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>44981</v>
       </c>
@@ -1190,7 +1222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>44982</v>
       </c>
@@ -1201,7 +1233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>44983</v>
       </c>
@@ -1212,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>44984</v>
       </c>
@@ -1223,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>44985</v>
       </c>
@@ -1234,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1259,37 +1291,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="25"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>44986</v>
       </c>
@@ -1306,7 +1338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>44987</v>
       </c>
@@ -1323,7 +1355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>44988</v>
       </c>
@@ -1340,7 +1372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>44989</v>
       </c>
@@ -1357,7 +1389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>44990</v>
       </c>
@@ -1374,7 +1406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>44991</v>
       </c>
@@ -1391,7 +1423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>44992</v>
       </c>
@@ -1408,7 +1440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>44993</v>
       </c>
@@ -1425,7 +1457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>44994</v>
       </c>
@@ -1442,7 +1474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>44995</v>
       </c>
@@ -1459,7 +1491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>44996</v>
       </c>
@@ -1476,7 +1508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>44997</v>
       </c>
@@ -1493,7 +1525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>44998</v>
       </c>
@@ -1510,7 +1542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>44999</v>
       </c>
@@ -1527,7 +1559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>45000</v>
       </c>
@@ -1544,7 +1576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>45001</v>
       </c>
@@ -1554,14 +1586,14 @@
       <c r="C17" s="11">
         <v>10</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <v>54</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="21">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>45002</v>
       </c>
@@ -1578,7 +1610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>45003</v>
       </c>
@@ -1595,7 +1627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>45004</v>
       </c>
@@ -1612,7 +1644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>45005</v>
       </c>
@@ -1622,14 +1654,14 @@
       <c r="C21" s="11">
         <v>5</v>
       </c>
-      <c r="D21" s="22">
-        <v>0</v>
-      </c>
-      <c r="E21" s="22">
+      <c r="D21" s="21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="21">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>45006</v>
       </c>
@@ -1639,10 +1671,10 @@
       <c r="C22" s="14">
         <v>0</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>45007</v>
       </c>
@@ -1652,27 +1684,29 @@
       <c r="C23" s="11">
         <v>10</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <v>54</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="21">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
         <v>45008</v>
       </c>
-      <c r="B24" s="16">
-        <v>0</v>
-      </c>
-      <c r="C24" s="17">
-        <v>0</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="10">
+        <v>1</v>
+      </c>
+      <c r="C24" s="11">
+        <v>5</v>
+      </c>
+      <c r="D24" s="21">
+        <v>27</v>
+      </c>
+      <c r="E24" s="26"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>45009</v>
       </c>
@@ -1682,10 +1716,10 @@
       <c r="C25" s="17">
         <v>0</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>45010</v>
       </c>
@@ -1695,10 +1729,10 @@
       <c r="C26" s="17">
         <v>0</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>45011</v>
       </c>
@@ -1708,10 +1742,10 @@
       <c r="C27" s="17">
         <v>0</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>45012</v>
       </c>
@@ -1721,10 +1755,10 @@
       <c r="C28" s="17">
         <v>0</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>45013</v>
       </c>
@@ -1734,10 +1768,10 @@
       <c r="C29" s="17">
         <v>0</v>
       </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>45014</v>
       </c>
@@ -1747,10 +1781,10 @@
       <c r="C30" s="17">
         <v>0</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>45015</v>
       </c>
@@ -1760,10 +1794,10 @@
       <c r="C31" s="17">
         <v>0</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>45016</v>
       </c>
@@ -1773,20 +1807,20 @@
       <c r="C32" s="17">
         <v>0</v>
       </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B29)</f>
-        <v>5</v>
-      </c>
-      <c r="C33" s="23">
+        <v>6</v>
+      </c>
+      <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1800,40 +1834,40 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="20">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="18">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO ANNA.xlsx
+++ b/ARQUIVO ANNA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21731D39-B76B-4858-95C5-E168045332CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A8E483-3E5C-46B8-9DEA-3EC951EA1852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -191,9 +191,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1295,7 +1292,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1696,15 +1693,17 @@
         <v>45008</v>
       </c>
       <c r="B24" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D24" s="21">
         <v>27</v>
       </c>
-      <c r="E24" s="26"/>
+      <c r="E24" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
@@ -1816,11 +1815,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B29)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1857,7 +1856,7 @@
       <c r="B2" s="25"/>
       <c r="C2" s="20">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1867,7 +1866,7 @@
       <c r="B3" s="25"/>
       <c r="C3" s="18">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO ANNA.xlsx
+++ b/ARQUIVO ANNA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A8E483-3E5C-46B8-9DEA-3EC951EA1852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A100EF7E-1873-40F9-A94B-C4BFF7D2AB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -122,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -182,9 +182,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1291,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,10 +1310,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="24"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -1651,8 +1648,8 @@
       <c r="C21" s="11">
         <v>5</v>
       </c>
-      <c r="D21" s="21">
-        <v>0</v>
+      <c r="D21" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="21">
         <v>54</v>
@@ -1662,30 +1659,34 @@
       <c r="A22" s="12">
         <v>45006</v>
       </c>
-      <c r="B22" s="13">
-        <v>0</v>
-      </c>
-      <c r="C22" s="14">
-        <v>0</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
+      <c r="B22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>45007</v>
       </c>
       <c r="B23" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D23" s="21">
         <v>54</v>
       </c>
-      <c r="E23" s="21">
-        <v>54</v>
+      <c r="E23" s="13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1706,16 +1707,18 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+      <c r="A25" s="9">
         <v>45009</v>
       </c>
-      <c r="B25" s="16">
-        <v>0</v>
-      </c>
-      <c r="C25" s="17">
-        <v>0</v>
-      </c>
-      <c r="D25" s="22"/>
+      <c r="B25" s="10">
+        <v>1</v>
+      </c>
+      <c r="C25" s="11">
+        <v>5</v>
+      </c>
+      <c r="D25" s="21">
+        <v>27</v>
+      </c>
       <c r="E25" s="22"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1843,27 +1846,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="20">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="18">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
         <v>35</v>

--- a/ARQUIVO ANNA.xlsx
+++ b/ARQUIVO ANNA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A100EF7E-1873-40F9-A94B-C4BFF7D2AB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9946E4-140B-4787-8277-B5EA466CBF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1288,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1711,28 +1711,34 @@
         <v>45009</v>
       </c>
       <c r="B25" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D25" s="21">
         <v>27</v>
       </c>
-      <c r="E25" s="22"/>
+      <c r="E25" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="A26" s="9">
         <v>45010</v>
       </c>
-      <c r="B26" s="16">
-        <v>0</v>
-      </c>
-      <c r="C26" s="17">
-        <v>0</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
+      <c r="B26" s="10">
+        <v>2</v>
+      </c>
+      <c r="C26" s="11">
+        <v>10</v>
+      </c>
+      <c r="D26" s="21">
+        <v>27</v>
+      </c>
+      <c r="E26" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
@@ -1818,11 +1824,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B29)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1859,7 +1865,7 @@
       <c r="B2" s="24"/>
       <c r="C2" s="20">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1869,7 +1875,7 @@
       <c r="B3" s="24"/>
       <c r="C3" s="18">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO ANNA.xlsx
+++ b/ARQUIVO ANNA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9946E4-140B-4787-8277-B5EA466CBF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79706EC4-CEE8-4F8F-94A8-5D6D7B9B33C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1289,7 +1289,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="A27" sqref="A27:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,30 +1741,38 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
+      <c r="A27" s="9">
         <v>45011</v>
       </c>
-      <c r="B27" s="16">
-        <v>0</v>
-      </c>
-      <c r="C27" s="17">
-        <v>0</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
+      <c r="B27" s="10">
+        <v>2</v>
+      </c>
+      <c r="C27" s="11">
+        <v>10</v>
+      </c>
+      <c r="D27" s="21">
+        <v>54</v>
+      </c>
+      <c r="E27" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
+      <c r="A28" s="9">
         <v>45012</v>
       </c>
-      <c r="B28" s="16">
-        <v>0</v>
-      </c>
-      <c r="C28" s="17">
-        <v>0</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
+      <c r="B28" s="10">
+        <v>2</v>
+      </c>
+      <c r="C28" s="11">
+        <v>10</v>
+      </c>
+      <c r="D28" s="21">
+        <v>27</v>
+      </c>
+      <c r="E28" s="21">
+        <v>54</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
@@ -1824,11 +1832,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B29)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1865,7 +1873,7 @@
       <c r="B2" s="24"/>
       <c r="C2" s="20">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1875,7 +1883,7 @@
       <c r="B3" s="24"/>
       <c r="C3" s="18">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO ANNA.xlsx
+++ b/ARQUIVO ANNA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79706EC4-CEE8-4F8F-94A8-5D6D7B9B33C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66629909-0DE9-4A0B-B5DC-6B5C62B9CF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -118,11 +118,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -188,6 +214,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1286,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:E28"/>
+      <selection activeCell="E29" sqref="E29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,7 +1602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>45001</v>
       </c>
@@ -1587,7 +1619,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>45002</v>
       </c>
@@ -1604,7 +1636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>45003</v>
       </c>
@@ -1621,7 +1653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>45004</v>
       </c>
@@ -1638,7 +1670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>45005</v>
       </c>
@@ -1655,7 +1687,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>45006</v>
       </c>
@@ -1672,7 +1704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>45007</v>
       </c>
@@ -1689,7 +1721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>45008</v>
       </c>
@@ -1706,7 +1738,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>45009</v>
       </c>
@@ -1723,7 +1755,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>45010</v>
       </c>
@@ -1740,7 +1772,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>45011</v>
       </c>
@@ -1757,7 +1789,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>45012</v>
       </c>
@@ -1770,24 +1802,34 @@
       <c r="D28" s="21">
         <v>27</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="25">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
         <v>45013</v>
       </c>
-      <c r="B29" s="16">
-        <v>0</v>
-      </c>
-      <c r="C29" s="17">
-        <v>0</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="10">
+        <v>4</v>
+      </c>
+      <c r="C29" s="11">
+        <v>20</v>
+      </c>
+      <c r="D29" s="21">
+        <v>54</v>
+      </c>
+      <c r="E29" s="21">
+        <v>27</v>
+      </c>
+      <c r="F29" s="21">
+        <v>27</v>
+      </c>
+      <c r="G29" s="21">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>45014</v>
       </c>
@@ -1798,9 +1840,9 @@
         <v>0</v>
       </c>
       <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="26"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>45015</v>
       </c>
@@ -1813,7 +1855,7 @@
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>45016</v>
       </c>
@@ -1832,11 +1874,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B29)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1873,7 +1915,7 @@
       <c r="B2" s="24"/>
       <c r="C2" s="20">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1883,7 +1925,7 @@
       <c r="B3" s="24"/>
       <c r="C3" s="18">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO ANNA.xlsx
+++ b/ARQUIVO ANNA.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66629909-0DE9-4A0B-B5DC-6B5C62B9CF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -13,7 +12,7 @@
     <sheet name="Março" sheetId="4" r:id="rId3"/>
     <sheet name="RELATORIO" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -210,16 +209,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -242,7 +241,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -280,7 +279,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -315,23 +314,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -367,26 +349,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -559,21 +524,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -584,7 +549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>44927</v>
       </c>
@@ -595,7 +560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>44928</v>
       </c>
@@ -606,7 +571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>44929</v>
       </c>
@@ -617,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>44930</v>
       </c>
@@ -628,7 +593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>44931</v>
       </c>
@@ -639,7 +604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>44932</v>
       </c>
@@ -650,7 +615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>44933</v>
       </c>
@@ -661,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>44934</v>
       </c>
@@ -672,7 +637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>44935</v>
       </c>
@@ -683,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>44936</v>
       </c>
@@ -694,7 +659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>44937</v>
       </c>
@@ -705,7 +670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>44938</v>
       </c>
@@ -716,7 +681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>44939</v>
       </c>
@@ -727,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>44940</v>
       </c>
@@ -738,7 +703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>44941</v>
       </c>
@@ -749,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>44942</v>
       </c>
@@ -760,7 +725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>44943</v>
       </c>
@@ -771,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>44944</v>
       </c>
@@ -782,7 +747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>44945</v>
       </c>
@@ -793,7 +758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>44946</v>
       </c>
@@ -804,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>44947</v>
       </c>
@@ -815,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>44948</v>
       </c>
@@ -826,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>44949</v>
       </c>
@@ -837,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>44950</v>
       </c>
@@ -848,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>44951</v>
       </c>
@@ -859,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>44952</v>
       </c>
@@ -870,7 +835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>44953</v>
       </c>
@@ -881,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>44954</v>
       </c>
@@ -892,7 +857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>44955</v>
       </c>
@@ -903,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>44956</v>
       </c>
@@ -914,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>44957</v>
       </c>
@@ -925,7 +890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -938,19 +903,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
     </row>
   </sheetData>
@@ -959,21 +924,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -984,7 +949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>44958</v>
       </c>
@@ -995,7 +960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>44959</v>
       </c>
@@ -1006,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>44960</v>
       </c>
@@ -1017,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>44961</v>
       </c>
@@ -1028,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>44962</v>
       </c>
@@ -1039,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>44963</v>
       </c>
@@ -1050,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>44964</v>
       </c>
@@ -1061,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>44965</v>
       </c>
@@ -1072,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>44966</v>
       </c>
@@ -1083,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>44967</v>
       </c>
@@ -1094,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>44968</v>
       </c>
@@ -1105,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>44969</v>
       </c>
@@ -1116,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>44970</v>
       </c>
@@ -1127,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>44971</v>
       </c>
@@ -1138,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>44972</v>
       </c>
@@ -1149,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>44973</v>
       </c>
@@ -1160,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>44974</v>
       </c>
@@ -1171,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>44975</v>
       </c>
@@ -1182,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>44976</v>
       </c>
@@ -1193,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>44977</v>
       </c>
@@ -1204,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>44978</v>
       </c>
@@ -1215,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>44979</v>
       </c>
@@ -1226,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>44980</v>
       </c>
@@ -1237,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>44981</v>
       </c>
@@ -1248,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>44982</v>
       </c>
@@ -1259,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>44983</v>
       </c>
@@ -1270,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>44984</v>
       </c>
@@ -1281,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>44985</v>
       </c>
@@ -1292,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +1270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1317,22 +1282,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:G29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1342,12 +1307,12 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>44986</v>
       </c>
@@ -1364,7 +1329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>44987</v>
       </c>
@@ -1381,7 +1346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>44988</v>
       </c>
@@ -1398,7 +1363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>44989</v>
       </c>
@@ -1415,7 +1380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>44990</v>
       </c>
@@ -1432,7 +1397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>44991</v>
       </c>
@@ -1449,7 +1414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>44992</v>
       </c>
@@ -1466,7 +1431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>44993</v>
       </c>
@@ -1483,7 +1448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>44994</v>
       </c>
@@ -1500,7 +1465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>44995</v>
       </c>
@@ -1517,7 +1482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>44996</v>
       </c>
@@ -1534,7 +1499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>44997</v>
       </c>
@@ -1551,7 +1516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>44998</v>
       </c>
@@ -1568,7 +1533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>44999</v>
       </c>
@@ -1585,7 +1550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>45000</v>
       </c>
@@ -1602,7 +1567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>45001</v>
       </c>
@@ -1619,7 +1584,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>45002</v>
       </c>
@@ -1636,7 +1601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>45003</v>
       </c>
@@ -1653,7 +1618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>45004</v>
       </c>
@@ -1670,7 +1635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>45005</v>
       </c>
@@ -1687,7 +1652,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>45006</v>
       </c>
@@ -1704,7 +1669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>45007</v>
       </c>
@@ -1721,7 +1686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>45008</v>
       </c>
@@ -1738,7 +1703,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>45009</v>
       </c>
@@ -1755,7 +1720,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>45010</v>
       </c>
@@ -1772,7 +1737,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>45011</v>
       </c>
@@ -1789,7 +1754,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>45012</v>
       </c>
@@ -1802,19 +1767,19 @@
       <c r="D28" s="21">
         <v>27</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="23">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>45013</v>
       </c>
       <c r="B29" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C29" s="11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D29" s="21">
         <v>54</v>
@@ -1822,27 +1787,25 @@
       <c r="E29" s="21">
         <v>27</v>
       </c>
-      <c r="F29" s="21">
-        <v>27</v>
-      </c>
-      <c r="G29" s="21">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>45014</v>
+      </c>
+      <c r="B30" s="10">
+        <v>2</v>
+      </c>
+      <c r="C30" s="11">
+        <v>10</v>
+      </c>
+      <c r="D30" s="21">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
-        <v>45014</v>
-      </c>
-      <c r="B30" s="16">
-        <v>0</v>
-      </c>
-      <c r="C30" s="17">
-        <v>0</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="26"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E30" s="26">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>45015</v>
       </c>
@@ -1855,7 +1818,7 @@
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>45016</v>
       </c>
@@ -1868,13 +1831,13 @@
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B29)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
@@ -1892,37 +1855,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="20">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="18">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
         <v>90</v>

--- a/ARQUIVO ANNA.xlsx
+++ b/ARQUIVO ANNA.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA703F58-A43C-4D08-B69A-780B057AEE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -12,7 +13,7 @@
     <sheet name="Março" sheetId="4" r:id="rId3"/>
     <sheet name="RELATORIO" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
@@ -94,7 +95,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -143,11 +144,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -218,7 +230,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -241,7 +256,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -279,7 +294,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -314,6 +329,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -349,9 +381,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -524,21 +573,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -549,7 +598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>44927</v>
       </c>
@@ -560,7 +609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>44928</v>
       </c>
@@ -571,7 +620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>44929</v>
       </c>
@@ -582,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>44930</v>
       </c>
@@ -593,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>44931</v>
       </c>
@@ -604,7 +653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>44932</v>
       </c>
@@ -615,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>44933</v>
       </c>
@@ -626,7 +675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>44934</v>
       </c>
@@ -637,7 +686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>44935</v>
       </c>
@@ -648,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>44936</v>
       </c>
@@ -659,7 +708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>44937</v>
       </c>
@@ -670,7 +719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>44938</v>
       </c>
@@ -681,7 +730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>44939</v>
       </c>
@@ -692,7 +741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>44940</v>
       </c>
@@ -703,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>44941</v>
       </c>
@@ -714,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>44942</v>
       </c>
@@ -725,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>44943</v>
       </c>
@@ -736,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>44944</v>
       </c>
@@ -747,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>44945</v>
       </c>
@@ -758,7 +807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>44946</v>
       </c>
@@ -769,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>44947</v>
       </c>
@@ -780,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>44948</v>
       </c>
@@ -791,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>44949</v>
       </c>
@@ -802,7 +851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>44950</v>
       </c>
@@ -813,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>44951</v>
       </c>
@@ -824,7 +873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>44952</v>
       </c>
@@ -835,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>44953</v>
       </c>
@@ -846,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>44954</v>
       </c>
@@ -857,7 +906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>44955</v>
       </c>
@@ -868,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>44956</v>
       </c>
@@ -879,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>44957</v>
       </c>
@@ -890,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
@@ -903,19 +952,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
     </row>
   </sheetData>
@@ -924,21 +973,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -949,7 +998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>44958</v>
       </c>
@@ -960,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>44959</v>
       </c>
@@ -971,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>44960</v>
       </c>
@@ -982,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>44961</v>
       </c>
@@ -993,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>44962</v>
       </c>
@@ -1004,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>44963</v>
       </c>
@@ -1015,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>44964</v>
       </c>
@@ -1026,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>44965</v>
       </c>
@@ -1037,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>44966</v>
       </c>
@@ -1048,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>44967</v>
       </c>
@@ -1059,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>44968</v>
       </c>
@@ -1070,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>44969</v>
       </c>
@@ -1081,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>44970</v>
       </c>
@@ -1092,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>44971</v>
       </c>
@@ -1103,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>44972</v>
       </c>
@@ -1114,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>44973</v>
       </c>
@@ -1125,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>44974</v>
       </c>
@@ -1136,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>44975</v>
       </c>
@@ -1147,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>44976</v>
       </c>
@@ -1158,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>44977</v>
       </c>
@@ -1169,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>44978</v>
       </c>
@@ -1180,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>44979</v>
       </c>
@@ -1191,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>44980</v>
       </c>
@@ -1202,7 +1251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>44981</v>
       </c>
@@ -1213,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>44982</v>
       </c>
@@ -1224,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>44983</v>
       </c>
@@ -1235,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>44984</v>
       </c>
@@ -1246,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>44985</v>
       </c>
@@ -1257,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>0</v>
       </c>
@@ -1270,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
@@ -1282,22 +1331,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="19.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1312,7 +1361,7 @@
       </c>
       <c r="E1" s="24"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>44986</v>
       </c>
@@ -1329,7 +1378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>44987</v>
       </c>
@@ -1346,7 +1395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>44988</v>
       </c>
@@ -1363,7 +1412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>44989</v>
       </c>
@@ -1380,7 +1429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>44990</v>
       </c>
@@ -1397,7 +1446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>44991</v>
       </c>
@@ -1414,7 +1463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>44992</v>
       </c>
@@ -1431,7 +1480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>44993</v>
       </c>
@@ -1448,7 +1497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>44994</v>
       </c>
@@ -1465,7 +1514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>44995</v>
       </c>
@@ -1482,7 +1531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>44996</v>
       </c>
@@ -1499,7 +1548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>44997</v>
       </c>
@@ -1516,7 +1565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>44998</v>
       </c>
@@ -1533,7 +1582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>44999</v>
       </c>
@@ -1550,7 +1599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>45000</v>
       </c>
@@ -1567,7 +1616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>45001</v>
       </c>
@@ -1584,7 +1633,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>45002</v>
       </c>
@@ -1601,7 +1650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>45003</v>
       </c>
@@ -1618,7 +1667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>45004</v>
       </c>
@@ -1635,7 +1684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>45005</v>
       </c>
@@ -1652,7 +1701,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>45006</v>
       </c>
@@ -1669,7 +1718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>45007</v>
       </c>
@@ -1686,7 +1735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>45008</v>
       </c>
@@ -1703,7 +1752,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>45009</v>
       </c>
@@ -1720,7 +1769,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>45010</v>
       </c>
@@ -1737,7 +1786,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>45011</v>
       </c>
@@ -1754,7 +1803,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>45012</v>
       </c>
@@ -1771,7 +1820,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>45013</v>
       </c>
@@ -1788,7 +1837,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>45014</v>
       </c>
@@ -1805,20 +1854,30 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
         <v>45015</v>
       </c>
-      <c r="B31" s="16">
-        <v>0</v>
-      </c>
-      <c r="C31" s="17">
-        <v>0</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="10">
+        <v>4</v>
+      </c>
+      <c r="C31" s="11">
+        <v>20</v>
+      </c>
+      <c r="D31" s="21">
+        <v>54</v>
+      </c>
+      <c r="E31" s="21">
+        <v>54</v>
+      </c>
+      <c r="F31" s="21">
+        <v>27</v>
+      </c>
+      <c r="G31" s="21">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>45016</v>
       </c>
@@ -1829,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="27"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="6">
-        <f>SUM(B2:B29)</f>
-        <v>16</v>
+        <f>SUM(B2:B32)</f>
+        <v>22</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1855,40 +1914,40 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="19"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="20">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="18">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO ANNA.xlsx
+++ b/ARQUIVO ANNA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA703F58-A43C-4D08-B69A-780B057AEE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1745864-B1CC-4A99-8CA7-4CD2554AEA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,12 +85,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -159,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,25 +197,16 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -230,10 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1335,7 +1317,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,10 +1338,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="24"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -1626,10 +1608,10 @@
       <c r="C17" s="11">
         <v>10</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="18">
         <v>54</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="18">
         <v>54</v>
       </c>
     </row>
@@ -1697,7 +1679,7 @@
       <c r="D21" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="18">
         <v>54</v>
       </c>
     </row>
@@ -1728,7 +1710,7 @@
       <c r="C23" s="11">
         <v>5</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="18">
         <v>54</v>
       </c>
       <c r="E23" s="13" t="s">
@@ -1745,10 +1727,10 @@
       <c r="C24" s="11">
         <v>10</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="18">
         <v>27</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="18">
         <v>54</v>
       </c>
     </row>
@@ -1762,10 +1744,10 @@
       <c r="C25" s="11">
         <v>10</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="18">
         <v>27</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="18">
         <v>54</v>
       </c>
     </row>
@@ -1779,10 +1761,10 @@
       <c r="C26" s="11">
         <v>10</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="18">
         <v>27</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="18">
         <v>54</v>
       </c>
     </row>
@@ -1796,10 +1778,10 @@
       <c r="C27" s="11">
         <v>10</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="18">
         <v>54</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="18">
         <v>54</v>
       </c>
     </row>
@@ -1813,10 +1795,10 @@
       <c r="C28" s="11">
         <v>10</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="18">
         <v>27</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="19">
         <v>54</v>
       </c>
     </row>
@@ -1830,10 +1812,10 @@
       <c r="C29" s="11">
         <v>10</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="18">
         <v>54</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="18">
         <v>27</v>
       </c>
     </row>
@@ -1847,10 +1829,10 @@
       <c r="C30" s="11">
         <v>10</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="18">
         <v>54</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="20">
         <v>54</v>
       </c>
     </row>
@@ -1864,31 +1846,35 @@
       <c r="C31" s="11">
         <v>20</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="18">
         <v>54</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="18">
         <v>54</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="18">
         <v>27</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="18">
         <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
+      <c r="A32" s="9">
         <v>45016</v>
       </c>
-      <c r="B32" s="16">
-        <v>0</v>
-      </c>
-      <c r="C32" s="17">
-        <v>0</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="27"/>
+      <c r="B32" s="10">
+        <v>2</v>
+      </c>
+      <c r="C32" s="11">
+        <v>10</v>
+      </c>
+      <c r="D32" s="18">
+        <v>27</v>
+      </c>
+      <c r="E32" s="23">
+        <v>54</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
@@ -1896,11 +1882,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B32)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1924,30 +1910,30 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="20">
+      <c r="B2" s="22"/>
+      <c r="C2" s="17">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="18">
+      <c r="B3" s="22"/>
+      <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO ANNA.xlsx
+++ b/ARQUIVO ANNA.xlsx
@@ -3,22 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1745864-B1CC-4A99-8CA7-4CD2554AEA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C1E4C7-10DA-4780-9513-0EADBBA0A91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
     <sheet name="Fervereiro" sheetId="3" r:id="rId2"/>
     <sheet name="Março" sheetId="4" r:id="rId3"/>
-    <sheet name="RELATORIO" sheetId="5" r:id="rId4"/>
+    <sheet name="Abril" sheetId="6" r:id="rId4"/>
+    <sheet name="RELATORIO" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -63,7 +64,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,6 +86,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -153,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -209,13 +216,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -558,7 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -958,7 +983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -1316,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="A1:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,10 +1363,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -1872,7 +1897,7 @@
       <c r="D32" s="18">
         <v>27</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="21">
         <v>54</v>
       </c>
     </row>
@@ -1900,6 +1925,337 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>45017</v>
+      </c>
+      <c r="B2" s="10">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10">
+        <v>27</v>
+      </c>
+      <c r="E2" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>45018</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
+        <v>45019</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>45020</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
+        <v>45021</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>45022</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
+        <v>45023</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>45024</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
+        <v>45025</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>45026</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="24">
+        <v>45027</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <v>45028</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="24">
+        <v>45029</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="24">
+        <v>45030</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="24">
+        <v>45031</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>45032</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="24">
+        <v>45033</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>45034</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
+        <v>45035</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
+        <v>45036</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="27"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
+        <v>45037</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>45038</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
+        <v>45039</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <v>45040</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
+        <v>45041</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="24">
+        <v>45042</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="24">
+        <v>45043</v>
+      </c>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="28"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="24">
+        <v>45044</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="24">
+        <v>45045</v>
+      </c>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="29"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="24">
+        <v>45046</v>
+      </c>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="6">
+        <f>SUM(B2:B31)</f>
+        <v>2</v>
+      </c>
+      <c r="C32" s="7">
+        <f>SUM(C2:C31)</f>
+        <v>10</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1910,27 +2266,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="17">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
         <v>120</v>

--- a/ARQUIVO ANNA.xlsx
+++ b/ARQUIVO ANNA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C1E4C7-10DA-4780-9513-0EADBBA0A91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8628DB38-AC27-4B62-A40F-646D95D0C997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -219,30 +219,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1363,10 +1364,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -1929,14 +1930,14 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1949,10 +1950,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1961,7 +1962,7 @@
       <c r="B2" s="10">
         <v>2</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>10</v>
       </c>
       <c r="D2" s="10">
@@ -1972,265 +1973,273 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+      <c r="A3" s="9">
         <v>45018</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="10">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10">
+        <v>54</v>
+      </c>
+      <c r="E3" s="10">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+      <c r="A4" s="22">
         <v>45019</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="22">
         <v>45020</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="A6" s="22">
         <v>45021</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="22">
         <v>45022</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="A8" s="22">
         <v>45023</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="22">
         <v>45024</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+      <c r="A10" s="22">
         <v>45025</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+      <c r="A11" s="22">
         <v>45026</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+      <c r="A12" s="22">
         <v>45027</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+      <c r="A13" s="22">
         <v>45028</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="A14" s="22">
         <v>45029</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+      <c r="A15" s="22">
         <v>45030</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+      <c r="A16" s="22">
         <v>45031</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+      <c r="A17" s="22">
         <v>45032</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+      <c r="A18" s="22">
         <v>45033</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="A19" s="22">
         <v>45034</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+      <c r="A20" s="22">
         <v>45035</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
+      <c r="A21" s="22">
         <v>45036</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="27"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="25"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
+      <c r="A22" s="22">
         <v>45037</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
+      <c r="A23" s="22">
         <v>45038</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="25"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="23"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
+      <c r="A24" s="22">
         <v>45039</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
+      <c r="A25" s="22">
         <v>45040</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
+      <c r="A26" s="22">
         <v>45041</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
+      <c r="A27" s="22">
         <v>45042</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
+      <c r="A28" s="22">
         <v>45043</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
+      <c r="A29" s="22">
         <v>45044</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="24">
+      <c r="A30" s="22">
         <v>45045</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="29"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="27"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="24">
+      <c r="A31" s="22">
         <v>45046</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
@@ -2238,11 +2247,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2252,6 +2261,7 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2266,27 +2276,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="17">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
         <v>120</v>

--- a/ARQUIVO ANNA.xlsx
+++ b/ARQUIVO ANNA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8628DB38-AC27-4B62-A40F-646D95D0C997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98800ACD-BA0B-4A33-9FD1-D0874DB72026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -237,13 +237,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1364,10 +1364,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -1930,14 +1930,14 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1950,10 +1950,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1990,13 +1990,21 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="9">
         <v>45019</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="B4" s="10">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10">
+        <v>27</v>
+      </c>
+      <c r="E4" s="10">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
@@ -2247,11 +2255,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2276,27 +2284,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="17">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
         <v>120</v>

--- a/ARQUIVO ANNA.xlsx
+++ b/ARQUIVO ANNA.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98800ACD-BA0B-4A33-9FD1-D0874DB72026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF990FDE-493F-491E-92DA-C9C8B32DBD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -1930,7 +1930,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2007,49 +2007,89 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+      <c r="A5" s="12">
         <v>45020</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="B5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="A6" s="9">
         <v>45021</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="B6" s="10">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10">
+        <v>54</v>
+      </c>
+      <c r="E6" s="10">
+        <v>54</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="9">
         <v>45022</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="B7" s="10">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11">
+        <v>10</v>
+      </c>
+      <c r="D7" s="10">
+        <v>54</v>
+      </c>
+      <c r="E7" s="10">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+      <c r="A8" s="12">
         <v>45023</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="B8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="A9" s="12">
         <v>45024</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="B9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
@@ -2255,11 +2295,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/ARQUIVO ANNA.xlsx
+++ b/ARQUIVO ANNA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF990FDE-493F-491E-92DA-C9C8B32DBD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADEA3EC-2F54-4AD6-94ED-03930B130BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -1930,7 +1930,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2092,13 +2092,21 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
+      <c r="A10" s="9">
         <v>45025</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11">
+        <v>5</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="10">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
@@ -2295,11 +2303,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/ARQUIVO ANNA.xlsx
+++ b/ARQUIVO ANNA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADEA3EC-2F54-4AD6-94ED-03930B130BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55FFD15-F6DA-43CE-B9C6-C9D9C8C2D162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -228,15 +228,6 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -244,6 +235,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1364,10 +1375,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -1927,20 +1938,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="25" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1950,12 +1962,12 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>45017</v>
       </c>
@@ -1965,14 +1977,14 @@
       <c r="C2" s="11">
         <v>10</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="28">
         <v>27</v>
       </c>
-      <c r="E2" s="10">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="28">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>45018</v>
       </c>
@@ -1982,14 +1994,14 @@
       <c r="C3" s="11">
         <v>10</v>
       </c>
-      <c r="D3" s="10">
-        <v>54</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="28">
+        <v>54</v>
+      </c>
+      <c r="E3" s="28">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>45019</v>
       </c>
@@ -1999,14 +2011,14 @@
       <c r="C4" s="11">
         <v>10</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="28">
         <v>27</v>
       </c>
-      <c r="E4" s="10">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="28">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>45020</v>
       </c>
@@ -2016,14 +2028,14 @@
       <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>45021</v>
       </c>
@@ -2033,14 +2045,14 @@
       <c r="C6" s="11">
         <v>10</v>
       </c>
-      <c r="D6" s="10">
-        <v>54</v>
-      </c>
-      <c r="E6" s="10">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="28">
+        <v>54</v>
+      </c>
+      <c r="E6" s="28">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>45022</v>
       </c>
@@ -2050,14 +2062,14 @@
       <c r="C7" s="11">
         <v>10</v>
       </c>
-      <c r="D7" s="10">
-        <v>54</v>
-      </c>
-      <c r="E7" s="10">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="28">
+        <v>54</v>
+      </c>
+      <c r="E7" s="28">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>45023</v>
       </c>
@@ -2067,14 +2079,14 @@
       <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>45024</v>
       </c>
@@ -2084,14 +2096,14 @@
       <c r="C9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>45025</v>
       </c>
@@ -2101,66 +2113,77 @@
       <c r="C10" s="11">
         <v>5</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="10">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
+      <c r="D10" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="28">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>45026</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
+        <v>3</v>
+      </c>
+      <c r="C11" s="11">
+        <v>15</v>
+      </c>
+      <c r="D11" s="28">
+        <v>54</v>
+      </c>
+      <c r="E11" s="28">
+        <v>54</v>
+      </c>
+      <c r="F11" s="28">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>45027</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="24"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>45028</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="24"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>45029</v>
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="24"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>45030</v>
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="24"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>45031</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="24"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
@@ -2168,8 +2191,8 @@
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
@@ -2177,8 +2200,8 @@
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
@@ -2186,8 +2209,8 @@
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="24"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
@@ -2195,8 +2218,8 @@
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="24"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
@@ -2204,8 +2227,8 @@
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="24"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="25"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
@@ -2213,8 +2236,8 @@
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
@@ -2222,8 +2245,8 @@
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="23"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
@@ -2231,8 +2254,8 @@
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
@@ -2240,8 +2263,8 @@
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
@@ -2249,8 +2272,8 @@
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
@@ -2258,8 +2281,8 @@
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="24"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
@@ -2267,8 +2290,8 @@
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="24"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
@@ -2276,8 +2299,8 @@
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="24"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
@@ -2285,8 +2308,8 @@
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="27"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="32"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
@@ -2294,8 +2317,8 @@
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
@@ -2303,14 +2326,14 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>55</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2332,27 +2355,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="17">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
         <v>120</v>

--- a/ARQUIVO ANNA.xlsx
+++ b/ARQUIVO ANNA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55FFD15-F6DA-43CE-B9C6-C9D9C8C2D162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECB4356-518C-4A2C-99EC-CF8F936D785D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -229,12 +229,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -255,6 +249,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1375,10 +1375,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -1941,15 +1941,15 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="33" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" style="25" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="34"/>
+    <col min="4" max="5" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1962,10 +1962,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1977,10 +1977,10 @@
       <c r="C2" s="11">
         <v>10</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="26">
         <v>27</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="26">
         <v>54</v>
       </c>
     </row>
@@ -1994,10 +1994,10 @@
       <c r="C3" s="11">
         <v>10</v>
       </c>
-      <c r="D3" s="28">
-        <v>54</v>
-      </c>
-      <c r="E3" s="28">
+      <c r="D3" s="26">
+        <v>54</v>
+      </c>
+      <c r="E3" s="26">
         <v>27</v>
       </c>
     </row>
@@ -2011,10 +2011,10 @@
       <c r="C4" s="11">
         <v>10</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="26">
         <v>27</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="26">
         <v>54</v>
       </c>
     </row>
@@ -2028,10 +2028,10 @@
       <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="29" t="s">
+      <c r="D5" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2045,10 +2045,10 @@
       <c r="C6" s="11">
         <v>10</v>
       </c>
-      <c r="D6" s="28">
-        <v>54</v>
-      </c>
-      <c r="E6" s="28">
+      <c r="D6" s="26">
+        <v>54</v>
+      </c>
+      <c r="E6" s="26">
         <v>54</v>
       </c>
     </row>
@@ -2062,10 +2062,10 @@
       <c r="C7" s="11">
         <v>10</v>
       </c>
-      <c r="D7" s="28">
-        <v>54</v>
-      </c>
-      <c r="E7" s="28">
+      <c r="D7" s="26">
+        <v>54</v>
+      </c>
+      <c r="E7" s="26">
         <v>54</v>
       </c>
     </row>
@@ -2079,10 +2079,10 @@
       <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="29" t="s">
+      <c r="D8" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2096,10 +2096,10 @@
       <c r="C9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="29" t="s">
+      <c r="D9" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="27" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2113,10 +2113,10 @@
       <c r="C10" s="11">
         <v>5</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="28">
+      <c r="D10" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="26">
         <v>54</v>
       </c>
     </row>
@@ -2130,24 +2130,32 @@
       <c r="C11" s="11">
         <v>15</v>
       </c>
-      <c r="D11" s="28">
-        <v>54</v>
-      </c>
-      <c r="E11" s="28">
-        <v>54</v>
-      </c>
-      <c r="F11" s="28">
+      <c r="D11" s="26">
+        <v>54</v>
+      </c>
+      <c r="E11" s="26">
+        <v>54</v>
+      </c>
+      <c r="F11" s="26">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
+      <c r="A12" s="12">
         <v>45027</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="B12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
@@ -2155,8 +2163,8 @@
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="24"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
@@ -2164,8 +2172,8 @@
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="24"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
@@ -2173,8 +2181,8 @@
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="24"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
@@ -2182,8 +2190,8 @@
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="24"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
@@ -2191,8 +2199,8 @@
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="24"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
@@ -2200,8 +2208,8 @@
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
@@ -2209,8 +2217,8 @@
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="24"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
@@ -2218,8 +2226,8 @@
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="24"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
@@ -2227,8 +2235,8 @@
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="24"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
@@ -2236,8 +2244,8 @@
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
@@ -2245,8 +2253,8 @@
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="24"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
@@ -2254,8 +2262,8 @@
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="24"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
@@ -2263,8 +2271,8 @@
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="24"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
@@ -2272,8 +2280,8 @@
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="24"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
@@ -2281,8 +2289,8 @@
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="24"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
@@ -2290,8 +2298,8 @@
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="24"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
@@ -2299,8 +2307,8 @@
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="24"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
@@ -2308,8 +2316,8 @@
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="24"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="32"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="30"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
@@ -2317,8 +2325,8 @@
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="24"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
@@ -2332,8 +2340,8 @@
         <f>SUM(C2:C31)</f>
         <v>70</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2355,27 +2363,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="17">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
         <v>120</v>

--- a/ARQUIVO ANNA.xlsx
+++ b/ARQUIVO ANNA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECB4356-518C-4A2C-99EC-CF8F936D785D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E28411C-F7F8-4C27-ACCF-A2674D0CEFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1941,7 +1941,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2158,13 +2158,21 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
+      <c r="A13" s="9">
         <v>45028</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="B13" s="10">
+        <v>2</v>
+      </c>
+      <c r="C13" s="11">
+        <v>10</v>
+      </c>
+      <c r="D13" s="26">
+        <v>27</v>
+      </c>
+      <c r="E13" s="26">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
@@ -2334,11 +2342,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>

--- a/ARQUIVO ANNA.xlsx
+++ b/ARQUIVO ANNA.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E28411C-F7F8-4C27-ACCF-A2674D0CEFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FE3B76-C306-4CEC-9CE5-E42CC7D3A283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1941,7 +1941,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:E13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2175,13 +2175,24 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
+      <c r="A14" s="9">
         <v>45029</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="B14" s="10">
+        <v>3</v>
+      </c>
+      <c r="C14" s="11">
+        <v>15</v>
+      </c>
+      <c r="D14" s="26">
+        <v>54</v>
+      </c>
+      <c r="E14" s="26">
+        <v>54</v>
+      </c>
+      <c r="F14" s="26">
+        <v>54</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
@@ -2342,11 +2353,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>

--- a/ARQUIVO ANNA.xlsx
+++ b/ARQUIVO ANNA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FE3B76-C306-4CEC-9CE5-E42CC7D3A283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1336155-7B00-4D00-AA0C-E773A11CDE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -1940,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2195,13 +2195,21 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+      <c r="A15" s="9">
         <v>45030</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
+      <c r="B15" s="10">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11">
+        <v>5</v>
+      </c>
+      <c r="D15" s="26">
+        <v>54</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
@@ -2353,11 +2361,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
@@ -2394,8 +2402,8 @@
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="17">
-        <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33)</f>
-        <v>24</v>
+        <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B32)</f>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2404,8 +2412,8 @@
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="15">
-        <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33)</f>
-        <v>120</v>
+        <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO ANNA.xlsx
+++ b/ARQUIVO ANNA.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1336155-7B00-4D00-AA0C-E773A11CDE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F08FC04-5988-40C5-ACE4-C3540B6DF9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -160,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -232,27 +232,30 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1375,10 +1378,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
@@ -1940,16 +1943,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="33" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="27" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" style="25" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="32"/>
+    <col min="4" max="5" width="9.140625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1962,10 +1965,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1977,10 +1980,10 @@
       <c r="C2" s="11">
         <v>10</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="30">
         <v>27</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="30">
         <v>54</v>
       </c>
     </row>
@@ -1994,10 +1997,10 @@
       <c r="C3" s="11">
         <v>10</v>
       </c>
-      <c r="D3" s="26">
-        <v>54</v>
-      </c>
-      <c r="E3" s="26">
+      <c r="D3" s="30">
+        <v>54</v>
+      </c>
+      <c r="E3" s="30">
         <v>27</v>
       </c>
     </row>
@@ -2011,10 +2014,10 @@
       <c r="C4" s="11">
         <v>10</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="30">
         <v>27</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="30">
         <v>54</v>
       </c>
     </row>
@@ -2028,10 +2031,10 @@
       <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="27" t="s">
+      <c r="D5" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2045,10 +2048,10 @@
       <c r="C6" s="11">
         <v>10</v>
       </c>
-      <c r="D6" s="26">
-        <v>54</v>
-      </c>
-      <c r="E6" s="26">
+      <c r="D6" s="30">
+        <v>54</v>
+      </c>
+      <c r="E6" s="30">
         <v>54</v>
       </c>
     </row>
@@ -2062,10 +2065,10 @@
       <c r="C7" s="11">
         <v>10</v>
       </c>
-      <c r="D7" s="26">
-        <v>54</v>
-      </c>
-      <c r="E7" s="26">
+      <c r="D7" s="30">
+        <v>54</v>
+      </c>
+      <c r="E7" s="30">
         <v>54</v>
       </c>
     </row>
@@ -2079,10 +2082,10 @@
       <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="27" t="s">
+      <c r="D8" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2096,10 +2099,10 @@
       <c r="C9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="27" t="s">
+      <c r="D9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2113,10 +2116,10 @@
       <c r="C10" s="11">
         <v>5</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="26">
+      <c r="D10" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="30">
         <v>54</v>
       </c>
     </row>
@@ -2130,10 +2133,10 @@
       <c r="C11" s="11">
         <v>15</v>
       </c>
-      <c r="D11" s="26">
-        <v>54</v>
-      </c>
-      <c r="E11" s="26">
+      <c r="D11" s="30">
+        <v>54</v>
+      </c>
+      <c r="E11" s="30">
         <v>54</v>
       </c>
       <c r="F11" s="26">
@@ -2150,10 +2153,10 @@
       <c r="C12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="27" t="s">
+      <c r="D12" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="31" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2167,10 +2170,10 @@
       <c r="C13" s="11">
         <v>10</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="30">
         <v>27</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="30">
         <v>54</v>
       </c>
     </row>
@@ -2184,10 +2187,10 @@
       <c r="C14" s="11">
         <v>15</v>
       </c>
-      <c r="D14" s="26">
-        <v>54</v>
-      </c>
-      <c r="E14" s="26">
+      <c r="D14" s="30">
+        <v>54</v>
+      </c>
+      <c r="E14" s="30">
         <v>54</v>
       </c>
       <c r="F14" s="26">
@@ -2204,21 +2207,29 @@
       <c r="C15" s="11">
         <v>5</v>
       </c>
-      <c r="D15" s="26">
-        <v>54</v>
-      </c>
-      <c r="E15" s="27" t="s">
+      <c r="D15" s="30">
+        <v>54</v>
+      </c>
+      <c r="E15" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
+      <c r="A16" s="9">
         <v>45031</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="B16" s="10">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11">
+        <v>5</v>
+      </c>
+      <c r="D16" s="30">
+        <v>54</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
@@ -2226,8 +2237,8 @@
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="24"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
@@ -2235,8 +2246,8 @@
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
@@ -2244,8 +2255,8 @@
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="24"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
@@ -2253,8 +2264,8 @@
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="24"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
@@ -2262,8 +2273,8 @@
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="24"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
@@ -2271,8 +2282,8 @@
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="24"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
@@ -2280,8 +2291,8 @@
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="24"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
@@ -2289,8 +2300,8 @@
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="24"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
@@ -2298,8 +2309,8 @@
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="24"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
@@ -2307,8 +2318,8 @@
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="24"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
@@ -2316,8 +2327,8 @@
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="24"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
@@ -2325,8 +2336,8 @@
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="24"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="29"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="35"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
@@ -2334,8 +2345,8 @@
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="24"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
@@ -2343,8 +2354,8 @@
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="24"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="30"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="36"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
@@ -2352,8 +2363,8 @@
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="24"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
@@ -2361,14 +2372,14 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>100</v>
-      </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
+        <v>105</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2390,30 +2401,30 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="17">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!B32)</f>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="15">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
